--- a/mySystem/mySystem/xls/tuihuo/表7退货产品评审单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表7退货产品评审单.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -104,21 +104,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辅助计量单位）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PA 质量部
 处理建议</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -132,176 +117,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产部
+    <t>(辅助计量单位）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA 生产部
 处理记录</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">24. "PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产部处理记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手动填写。需要“返工”的，编写“返工生产指令”，返工完毕，按下“批准”；“不合格品”执行不合格品控制程序。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">25. "PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产部处理记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写完毕，即：已返工的产品，入库待验；需要报废的产品，填写“报废申请单”待批。按“批准”键，通知“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质管部”进行关闭退货程序，见“表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（由</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质管部填写）。</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,11 +168,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -540,37 +364,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -578,50 +384,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,148 +718,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="A11:XFD11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="128.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -1055,5 +850,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/tuihuo/表7退货产品评审单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表7退货产品评审单.xlsx
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -375,24 +375,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,30 +387,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,6 +418,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,33 +718,37 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,10 +756,10 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="75" customHeight="1">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="37.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -766,21 +767,21 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -788,53 +789,53 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="128.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -849,7 +850,7 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.73" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>